--- a/stat_tests/combined_block_data.xlsx
+++ b/stat_tests/combined_block_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminebassil/Documents/Emory/3_Research/Projects/CogMap_Paper/stat_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FDFE185C-B1B4-9F46-9530-2C74E169845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A3AE6469-1660-294C-9AB1-C5A5F9E86E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined_block_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="49" uniqueCount="17">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="50" uniqueCount="18">
   <si>
     <t>contrast</t>
   </si>
@@ -76,12 +85,15 @@
   </si>
   <si>
     <t>m_teleport_block</t>
+  </si>
+  <si>
+    <t>p.value corrected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -607,37 +619,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -660,11 +642,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -977,19 +959,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,10 +991,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1031,11 +1016,15 @@
       <c r="F2" s="1">
         <v>5.02778485511612E-10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1">
+        <f>F2*7</f>
+        <v>3.519449398581284E-9</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1054,11 +1043,15 @@
       <c r="F3" s="1">
         <v>5.0277715324398297E-10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G22" si="0">F3*7</f>
+        <v>3.5194400727078809E-9</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1077,149 +1070,177 @@
       <c r="F4">
         <v>0.122010528256252</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85407369779376396</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>122.52214112308801</v>
+        <v>122.522141122867</v>
       </c>
       <c r="C5">
-        <v>20.304359576974999</v>
+        <v>20.304359576980701</v>
       </c>
       <c r="D5">
-        <v>574.999999999995</v>
+        <v>575.00000000001899</v>
       </c>
       <c r="E5">
-        <v>6.0342775480605102</v>
+        <v>6.03427754804797</v>
       </c>
       <c r="F5" s="1">
-        <v>9.0839916699891904E-9</v>
-      </c>
-      <c r="G5" t="s">
+        <v>9.0839915589668896E-9</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.358794091276823E-8</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>149.116713330149</v>
+        <v>149.11671333014999</v>
       </c>
       <c r="C6">
-        <v>20.304359576974999</v>
+        <v>20.304359576980701</v>
       </c>
       <c r="D6">
-        <v>574.999999999995</v>
+        <v>575.00000000001899</v>
       </c>
       <c r="E6">
-        <v>7.34407370815312</v>
+        <v>7.3440737081511003</v>
       </c>
       <c r="F6" s="1">
         <v>5.0490955860737999E-10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5343669102516599E-9</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>26.594572207061301</v>
+        <v>26.594572207282202</v>
       </c>
       <c r="C7">
-        <v>20.304359576974999</v>
+        <v>20.304359576980598</v>
       </c>
       <c r="D7">
-        <v>574.999999999995</v>
+        <v>575.00000000001899</v>
       </c>
       <c r="E7">
-        <v>1.3097961600926</v>
+        <v>1.3097961601031201</v>
       </c>
       <c r="F7">
-        <v>0.39025932040821099</v>
-      </c>
-      <c r="G7" t="s">
+        <v>0.39025932040234401</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.731815242816408</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.43131383886461599</v>
+        <v>0.426446874148809</v>
       </c>
       <c r="C8">
-        <v>2.74522499581543E-2</v>
+        <v>2.76477516221009E-2</v>
       </c>
       <c r="D8">
         <v>574.999999999995</v>
       </c>
       <c r="E8">
-        <v>15.711420357969599</v>
+        <v>15.424287659178701</v>
       </c>
       <c r="F8" s="1">
         <v>5.0275095198060202E-10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5192566638642141E-9</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.58207176435792396</v>
+        <v>0.58251565536630301</v>
       </c>
       <c r="C9">
-        <v>2.7452249958154401E-2</v>
+        <v>2.76477516221009E-2</v>
       </c>
       <c r="D9">
         <v>574.999999999995</v>
       </c>
       <c r="E9">
-        <v>21.203062235160299</v>
+        <v>21.069187228253899</v>
       </c>
       <c r="F9" s="1">
         <v>5.0275095198060202E-10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5192566638642141E-9</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.15075792549330799</v>
+        <v>0.15606878121749501</v>
       </c>
       <c r="C10">
-        <v>2.7452249958154401E-2</v>
+        <v>2.7647751622101001E-2</v>
       </c>
       <c r="D10">
         <v>574.999999999995</v>
       </c>
       <c r="E10">
-        <v>5.4916418771907303</v>
+        <v>5.6448995690751502</v>
       </c>
       <c r="F10" s="1">
-        <v>1.7975706867456899E-7</v>
-      </c>
-      <c r="G10" t="s">
+        <v>7.8361021671469202E-8</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4852715170028443E-7</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1238,11 +1259,15 @@
       <c r="F11" s="1">
         <v>5.0279624908000601E-10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.519573743560042E-9</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1261,11 +1286,15 @@
       <c r="F12" s="1">
         <v>5.0277981777924197E-10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5194587244546938E-9</v>
+      </c>
+      <c r="H12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1284,11 +1313,15 @@
       <c r="F13">
         <v>0.172446098587585</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2071226901130949</v>
+      </c>
+      <c r="H13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1307,11 +1340,15 @@
       <c r="F14" s="1">
         <v>5.0278070595766198E-10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5194649417036337E-9</v>
+      </c>
+      <c r="H14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1330,11 +1367,15 @@
       <c r="F15" s="1">
         <v>5.0275095198060202E-10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5192566638642141E-9</v>
+      </c>
+      <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1353,80 +1394,96 @@
       <c r="F16">
         <v>7.2226494041384096E-3</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0558545828968869E-2</v>
+      </c>
+      <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-4.6919404910654103</v>
+        <v>-4.6919404910602101</v>
       </c>
       <c r="C17">
-        <v>0.46256330331880002</v>
+        <v>0.46256330331641399</v>
       </c>
       <c r="D17">
-        <v>574.99999999997101</v>
+        <v>574.999999999995</v>
       </c>
       <c r="E17">
-        <v>-10.143347856178099</v>
+        <v>-10.143347856219201</v>
       </c>
       <c r="F17" s="1">
         <v>5.0277926266772996E-10</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5194548386741096E-9</v>
+      </c>
+      <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18">
-        <v>-8.1784788773766106</v>
+        <v>-8.1784788773766</v>
       </c>
       <c r="C18">
-        <v>0.46256330331880002</v>
+        <v>0.46256330331641299</v>
       </c>
       <c r="D18">
         <v>574.999999999995</v>
       </c>
       <c r="E18">
-        <v>-17.680777568600099</v>
+        <v>-17.680777568691301</v>
       </c>
       <c r="F18" s="1">
         <v>5.0275095198060202E-10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5192566638642141E-9</v>
+      </c>
+      <c r="H18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19">
-        <v>-3.4865383863111998</v>
+        <v>-3.4865383863164001</v>
       </c>
       <c r="C19">
-        <v>0.46256330331880002</v>
+        <v>0.46256330331641299</v>
       </c>
       <c r="D19">
         <v>574.999999999995</v>
       </c>
       <c r="E19">
-        <v>-7.5374297124220204</v>
+        <v>-7.5374297124721403</v>
       </c>
       <c r="F19" s="1">
-        <v>5.0333504031385701E-10</v>
-      </c>
-      <c r="G19" t="s">
+        <v>5.0333492929155496E-10</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5233445050408847E-9</v>
+      </c>
+      <c r="H19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1445,11 +1502,15 @@
       <c r="F20" s="1">
         <v>2.3858840358936801E-7</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6701188251255761E-6</v>
+      </c>
+      <c r="H20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1468,11 +1529,15 @@
       <c r="F21" s="1">
         <v>7.5127959409115895E-10</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2589571586381128E-9</v>
+      </c>
+      <c r="H21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1491,22 +1556,26 @@
       <c r="F22">
         <v>0.465215855436037</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2565109880522591</v>
+      </c>
+      <c r="H22" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
-      <formula>0.05</formula>
-      <formula>0.01</formula>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.01</formula>
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0.001</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+      <formula>0.05</formula>
+      <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
